--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2084720.799974583</v>
+        <v>-2088860.506388538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14445195.40594851</v>
+        <v>14442245.50899641</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225.5701590724947</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>294.4832529531913</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>61.214858392467</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.6217034654811</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.38642965787652</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>316.3682574994505</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>339.4275648811906</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>119.7585987375938</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968084</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>176.4925410223831</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>155.9290698989215</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>84.54764325966323</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>134.0028579006477</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>109.1256036669408</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>260.327748471727</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>7.165119505973371</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>103.3032684095658</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>19.76753335019625</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>252.4670697705882</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.0961968842571</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,10 +1765,10 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>58.07879006054863</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>91.82075836397964</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -2093,7 +2093,7 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412923</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135898</v>
@@ -2333,7 +2333,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135901</v>
       </c>
       <c r="I23" t="n">
         <v>6.593776422875408</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838878</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828891</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431723</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459964</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643936</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931847</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908574</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147788</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804992</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922185</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367777</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920509</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1148.916359661852</v>
+        <v>1278.176883026129</v>
       </c>
       <c r="C2" t="n">
-        <v>755.7408581647828</v>
+        <v>1278.176883026129</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8922126370104</v>
+        <v>892.7357542427972</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370104</v>
+        <v>490.1522293593417</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073922</v>
+        <v>477.2981949297235</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>2065.661024630535</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523735</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958334</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.916359661852</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="W2" t="n">
-        <v>1148.916359661852</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="X2" t="n">
-        <v>1148.916359661852</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Y2" t="n">
-        <v>1148.916359661852</v>
+        <v>1678.671628737526</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>704.4227390072572</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>553.7685085673494</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475492</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365387</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.318461375479</v>
+        <v>921.5731989359482</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737746</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1677.497615518346</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1454.957613889413</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1224.8403680227</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675951</v>
+        <v>1035.533290372711</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.8616425347859</v>
+        <v>856.2190734482185</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>399.6378596434613</v>
+        <v>157.9214702181269</v>
       </c>
       <c r="C4" t="n">
-        <v>229.4327417094505</v>
+        <v>157.9214702181269</v>
       </c>
       <c r="D4" t="n">
-        <v>229.4327417094505</v>
+        <v>157.9214702181269</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865298</v>
+        <v>157.9214702181269</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V4" t="n">
-        <v>659.5038901782084</v>
+        <v>441.2518722869493</v>
       </c>
       <c r="W4" t="n">
-        <v>659.5038901782084</v>
+        <v>157.9214702181269</v>
       </c>
       <c r="X4" t="n">
-        <v>659.5038901782084</v>
+        <v>157.9214702181269</v>
       </c>
       <c r="Y4" t="n">
-        <v>436.3918289948517</v>
+        <v>157.9214702181269</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1650.712604500227</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.537103003158</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="D5" t="n">
-        <v>872.0959742198254</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="E5" t="n">
-        <v>469.5124493363699</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="F5" t="n">
-        <v>52.6180108663477</v>
+        <v>917.0861696093799</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475492</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475492</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475492</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>320.4858080663415</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764337</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713896</v>
+        <v>1921.011251721707</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606224</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1870.655869043498</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964319</v>
+        <v>1870.655869043498</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964319</v>
+        <v>1614.903139478096</v>
       </c>
       <c r="V5" t="n">
-        <v>1650.712604500227</v>
+        <v>1272.796330181615</v>
       </c>
       <c r="W5" t="n">
-        <v>1650.712604500227</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="X5" t="n">
-        <v>1650.712604500227</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="Y5" t="n">
-        <v>1650.712604500227</v>
+        <v>929.9402040389981</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>570.1551815283261</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>570.1551815283261</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>440.0662141498065</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>179.187917143826</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359482</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359482</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1930.277013161864</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1753.293201360773</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1543.230058039415</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1320.690056410482</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1090.572810543769</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>901.2657328937803</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>721.9515159692875</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>155.8130805288502</v>
       </c>
       <c r="W7" t="n">
-        <v>500.6880427951285</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633851</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.996335360124</v>
+        <v>610.8466170372428</v>
       </c>
       <c r="C8" t="n">
-        <v>1199.996335360124</v>
+        <v>217.6711155401734</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.996335360124</v>
+        <v>217.6711155401734</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>217.6711155401734</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>204.8170811105552</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4811,10 +4811,10 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.487044439522</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.487044439522</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y8" t="n">
-        <v>1199.996335360124</v>
+        <v>610.8466170372428</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.6651033901</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
         <v>1443.506853769802</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.6509845843718</v>
+        <v>601.7469420923164</v>
       </c>
       <c r="C10" t="n">
-        <v>639.6509845843718</v>
+        <v>601.7469420923164</v>
       </c>
       <c r="D10" t="n">
-        <v>484.0178714868866</v>
+        <v>446.1138289948312</v>
       </c>
       <c r="E10" t="n">
-        <v>484.0178714868866</v>
+        <v>446.1138289948312</v>
       </c>
       <c r="F10" t="n">
-        <v>348.6614493650202</v>
+        <v>446.1138289948312</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
         <v>180.4073954644657</v>
@@ -5005,7 +5005,7 @@
         <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>601.7469420923164</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1699.093732252355</v>
+        <v>1651.747936481893</v>
       </c>
       <c r="C11" t="n">
-        <v>1377.714505901479</v>
+        <v>1330.368710131017</v>
       </c>
       <c r="D11" t="n">
-        <v>1064.069652264341</v>
+        <v>1330.368710131017</v>
       </c>
       <c r="E11" t="n">
-        <v>733.2824025270792</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>388.1842392032509</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527726</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5075,16 +5075,16 @@
         <v>2921.999930786569</v>
       </c>
       <c r="V11" t="n">
-        <v>2651.689396636282</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="W11" t="n">
-        <v>2352.486636750763</v>
+        <v>2622.79717090105</v>
       </c>
       <c r="X11" t="n">
-        <v>2352.486636750763</v>
+        <v>2305.140840980301</v>
       </c>
       <c r="Y11" t="n">
-        <v>2027.792202817558</v>
+        <v>1980.446407047096</v>
       </c>
     </row>
     <row r="12">
@@ -5124,10 +5124,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1009.629923393023</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
         <v>1458.313011372373</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420614</v>
+        <v>558.6374311877012</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542445</v>
+        <v>460.2285883998842</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029531</v>
+        <v>376.3917504485928</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131558</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208436</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="U13" t="n">
-        <v>1313.608118922022</v>
+        <v>1230.985410981373</v>
       </c>
       <c r="V13" t="n">
-        <v>1293.640913517783</v>
+        <v>1036.802340948391</v>
       </c>
       <c r="W13" t="n">
-        <v>1082.106786595155</v>
+        <v>825.2682140257626</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8227395243315</v>
+        <v>662.9841669549394</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871687</v>
+        <v>662.9841669549394</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937469</v>
+        <v>726.0449080766006</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2984.647095423699</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.44433553818</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.78800561743</v>
+        <v>2271.567913927594</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684225</v>
+        <v>1946.87347999439</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349.6018362700518</v>
+        <v>398.2566373726695</v>
       </c>
       <c r="C16" t="n">
-        <v>290.9363917644473</v>
+        <v>299.8477945848525</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0995538131559</v>
+        <v>299.8477945848525</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0995538131559</v>
+        <v>299.8477945848525</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131559</v>
+        <v>299.8477945848525</v>
       </c>
       <c r="G16" t="n">
         <v>207.0995538131559</v>
@@ -5434,13 +5434,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457734</v>
+        <v>1230.985410981373</v>
       </c>
       <c r="V16" t="n">
-        <v>988.1475398457734</v>
+        <v>1036.802340948391</v>
       </c>
       <c r="W16" t="n">
-        <v>776.6134129231449</v>
+        <v>825.2682140257627</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3293658523219</v>
+        <v>662.9841669549397</v>
       </c>
       <c r="Y16" t="n">
-        <v>463.0135798151591</v>
+        <v>511.6683809177769</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5601,7 +5601,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292422</v>
@@ -5838,7 +5838,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,13 +5972,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H23" t="n">
         <v>68.7795079292422</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6145,25 +6145,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662627</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>186.009121778567</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>813.7807714052482</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
@@ -6382,16 +6382,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286446</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026477</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485128</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057086</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.8570290861559</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136177</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741586</v>
+        <v>1176.159676832146</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513237</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150699</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770098</v>
+        <v>2801.6635819815</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.49561390162</v>
+        <v>3192.911219976309</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380776</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996512</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918659</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237453</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431901</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>149.4335135798903</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898322</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515735</v>
+        <v>395.396194563632</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169078</v>
+        <v>581.687772901896</v>
       </c>
       <c r="N34" t="n">
-        <v>895.537627048117</v>
+        <v>870.6770655353566</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816895</v>
+        <v>1033.381832577065</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.910118928626</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395505</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000928</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124405</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584486</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,25 +6953,25 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7011,16 +7011,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446688</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184686</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567326</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7248,7 +7248,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7439,10 +7439,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7485,7 +7485,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343038</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655131</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072212</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222403</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960401</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567326</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879418</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296498</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376783</v>
+        <v>159.1611234709547</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837484</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886031</v>
+        <v>537.1052683063443</v>
       </c>
       <c r="O3" t="n">
-        <v>346.6921127901687</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>433.0361986916903</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970439</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>151.3369738679532</v>
+        <v>544.1202775014896</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8459,13 +8459,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>393.9156246749224</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8535,13 +8535,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>471.7186805737889</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>467.0304465710374</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8772,13 +8772,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N12" t="n">
-        <v>538.5873532373481</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246119</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,13 +10665,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>663.2434089132776</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>67.15162876816193</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>330.7876960561715</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.974357700090508</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>172.4737059824558</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>72.94441608896277</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>147.5112319245277</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>39.3459642993901</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>3.67244260283735</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1262574.101050131</v>
+        <v>1261070.23201573</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1262574.101050131</v>
+        <v>1261070.23201573</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54099.65342800702</v>
+        <v>54099.65342800704</v>
       </c>
       <c r="C2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800706</v>
       </c>
       <c r="D2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="E2" t="n">
-        <v>47807.70702732013</v>
+        <v>47807.70702732012</v>
       </c>
       <c r="F2" t="n">
         <v>47807.70702732013</v>
       </c>
       <c r="G2" t="n">
+        <v>54099.65342800703</v>
+      </c>
+      <c r="H2" t="n">
         <v>54099.65342800702</v>
-      </c>
-      <c r="H2" t="n">
-        <v>54099.65342800703</v>
       </c>
       <c r="I2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="J2" t="n">
-        <v>54099.65342800706</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="K2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="L2" t="n">
-        <v>54099.65342800696</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="M2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="O2" t="n">
+        <v>54099.65342800703</v>
+      </c>
+      <c r="P2" t="n">
         <v>54099.65342800702</v>
-      </c>
-      <c r="N2" t="n">
-        <v>54099.65342800703</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54099.65342800701</v>
-      </c>
-      <c r="P2" t="n">
-        <v>54099.65342800703</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728564</v>
+        <v>62456.24177539663</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907734</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907734</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
         <v>138605.9604845213</v>
@@ -26436,7 +26436,7 @@
         <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416344.2070528137</v>
+        <v>-411691.987431639</v>
       </c>
       <c r="C6" t="n">
-        <v>-234139.258760958</v>
+        <v>-237833.3303975836</v>
       </c>
       <c r="D6" t="n">
-        <v>-241883.8394645785</v>
+        <v>-249620.1286879697</v>
       </c>
       <c r="E6" t="n">
-        <v>-256106.8346310863</v>
+        <v>-256316.5661777758</v>
       </c>
       <c r="F6" t="n">
-        <v>-143984.2731570417</v>
+        <v>-144194.0047037313</v>
       </c>
       <c r="G6" t="n">
         <v>-237860.3184002982</v>
@@ -26540,28 +26540,28 @@
         <v>-190434.9928636162</v>
       </c>
       <c r="I6" t="n">
-        <v>-190434.9928636162</v>
+        <v>-190434.9928636161</v>
       </c>
       <c r="J6" t="n">
-        <v>-403476.9104609015</v>
+        <v>-396960.6253063287</v>
       </c>
       <c r="K6" t="n">
-        <v>-196674.7612663992</v>
+        <v>-196674.7612663991</v>
       </c>
       <c r="L6" t="n">
-        <v>-251857.3502010204</v>
+        <v>-255906.1874114924</v>
       </c>
       <c r="M6" t="n">
-        <v>-232635.8223232393</v>
+        <v>-233687.5173344273</v>
       </c>
       <c r="N6" t="n">
-        <v>-190434.9928636162</v>
+        <v>-190434.9928636161</v>
       </c>
       <c r="O6" t="n">
-        <v>-218202.6869063874</v>
+        <v>-218202.6869063873</v>
       </c>
       <c r="P6" t="n">
-        <v>-190434.9928636162</v>
+        <v>-190434.9928636161</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,16 +26817,16 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660705</v>
+        <v>78.07030221924579</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155134</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>156.0165584230043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>114.5478750036856</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.7476534956776</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.89937128976675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.9695088465118</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>40.49863421198629</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>22.31748370406632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>27.86147980020485</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>13.82277159153604</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627223</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>104.004557025751</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>253.1020580579554</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>282.7414014217322</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28020,13 +28020,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>21.74981753850906</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>57.44590969460809</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.01250026485212</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5.636002634528545</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29053,7 +29053,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I23" t="n">
         <v>130.3599693155844</v>
@@ -29217,28 +29217,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>35.7104901066877</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901255</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>86.65052755599572</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
-        <v>30.27223765901306</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566262</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683160352</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>106.8683420224762</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>94.97643844045089</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,19 +30165,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>35.71049010668719</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634527857</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,16 +30639,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634527927</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634528168</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135819</v>
+        <v>9.597286046858363</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344365</v>
+        <v>451.7331554521776</v>
       </c>
       <c r="O3" t="n">
-        <v>254.0045539012798</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>279.7880289611986</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729475</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>58.94985181864132</v>
+        <v>451.7331554521776</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35179,13 +35179,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>244.7971333371383</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35255,13 +35255,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>381.6583337168707</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>381.6583337168707</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35492,13 +35492,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N12" t="n">
-        <v>453.2152403831814</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176441</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>201.4959849287077</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907922</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.7820836676936</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039242</v>
+        <v>619.7932383009069</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987987</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338736</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>664.2959804238012</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.1996343381912</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273775</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055068</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>291.908376397435</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>216.0634745784091</v>
+        <v>233.8669559106679</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37385,13 +37385,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>570.8562868639657</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>118.3721477934972</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37555,7 +37555,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.09276664468034</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873199</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133814</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
